--- a/teaching/traditional_assets/database/data/argentina/argentina_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/argentina/argentina_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.476</v>
+        <v>0.383</v>
       </c>
       <c r="E2">
-        <v>0.3995</v>
+        <v>0.447</v>
       </c>
       <c r="F2">
-        <v>0.167</v>
+        <v>0.197</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0007745196430708365</v>
+        <v>0.0005727480334068931</v>
       </c>
       <c r="J2">
-        <v>-0.0006202077242573279</v>
+        <v>0.0004979334718328064</v>
       </c>
       <c r="K2">
-        <v>1505.5</v>
+        <v>1411.6</v>
       </c>
       <c r="L2">
-        <v>0.2052683964386513</v>
+        <v>0.2409901835253948</v>
       </c>
       <c r="M2">
-        <v>326.56</v>
+        <v>319.5784</v>
       </c>
       <c r="N2">
-        <v>0.03354425178732846</v>
+        <v>0.04439760492352148</v>
       </c>
       <c r="O2">
-        <v>0.2169113251411491</v>
+        <v>0.2263944460187022</v>
       </c>
       <c r="P2">
-        <v>290.66</v>
+        <v>310.5684</v>
       </c>
       <c r="Q2">
-        <v>0.02985660284329033</v>
+        <v>0.04314588571984274</v>
       </c>
       <c r="R2">
-        <v>0.1930654267685155</v>
+        <v>0.2200116180221026</v>
       </c>
       <c r="S2">
-        <v>35.90000000000001</v>
+        <v>9.01</v>
       </c>
       <c r="T2">
-        <v>0.1099338559529642</v>
+        <v>0.0281933947976459</v>
       </c>
       <c r="U2">
-        <v>6329.1</v>
+        <v>7437.9</v>
       </c>
       <c r="V2">
-        <v>0.6501253184320817</v>
+        <v>1.033314346841528</v>
       </c>
       <c r="W2">
-        <v>0.2620178758354134</v>
+        <v>0.2455892731122089</v>
       </c>
       <c r="X2">
-        <v>0.1040938426935093</v>
+        <v>0.1097854740990652</v>
       </c>
       <c r="Y2">
-        <v>0.1579240331419041</v>
+        <v>0.1358037990131437</v>
       </c>
       <c r="Z2">
-        <v>1.088093903494173</v>
+        <v>1.333921285916345</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0926441224262962</v>
+        <v>0.1047469695529461</v>
       </c>
       <c r="AC2">
-        <v>-0.09554284189931718</v>
+        <v>-0.1047469695529461</v>
       </c>
       <c r="AD2">
-        <v>4973.7</v>
+        <v>3352</v>
       </c>
       <c r="AE2">
-        <v>351.9027970908722</v>
+        <v>7.725641971595618</v>
       </c>
       <c r="AF2">
-        <v>5325.602797090873</v>
+        <v>3359.725641971595</v>
       </c>
       <c r="AG2">
-        <v>-1003.497202909128</v>
+        <v>-4078.174358028404</v>
       </c>
       <c r="AH2">
-        <v>0.3536068341668719</v>
+        <v>0.3182213607142115</v>
       </c>
       <c r="AI2">
-        <v>0.4765425675950075</v>
+        <v>0.2994694634040878</v>
       </c>
       <c r="AJ2">
-        <v>-0.1149257168078901</v>
+        <v>-1.307138318671997</v>
       </c>
       <c r="AK2">
-        <v>-0.2070602145392233</v>
+        <v>-1.078589447465863</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>76.87326120556413</v>
+        <v>684.0816326530612</v>
       </c>
       <c r="AP2">
-        <v>-15.51000313615344</v>
+        <v>-832.2804812302865</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banco Santander Río S.A. (BASE:BRIO)</t>
+          <t>Banco Patagonia S.A. (BASE:BPAT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.515</v>
+        <v>0.375</v>
       </c>
       <c r="E3">
-        <v>0.476</v>
+        <v>0.482</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +734,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004105154672591855</v>
+        <v>0.007927390372591865</v>
       </c>
       <c r="J3">
-        <v>0.003251895368056997</v>
+        <v>0.006836087282338959</v>
       </c>
       <c r="K3">
-        <v>375.1</v>
+        <v>199.2</v>
       </c>
       <c r="L3">
-        <v>0.2717525175686445</v>
+        <v>0.4706994328922495</v>
       </c>
       <c r="M3">
-        <v>35.3</v>
+        <v>103.5504</v>
       </c>
       <c r="N3">
-        <v>0.0296588808603596</v>
+        <v>0.1724690206528981</v>
       </c>
       <c r="O3">
-        <v>0.09410823780325245</v>
+        <v>0.5198313253012048</v>
       </c>
       <c r="P3">
-        <v>35.3</v>
+        <v>103.5504</v>
       </c>
       <c r="Q3">
-        <v>0.0296588808603596</v>
+        <v>0.1724690206528981</v>
       </c>
       <c r="R3">
-        <v>0.09410823780325245</v>
+        <v>0.5198313253012048</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,55 +770,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1068.2</v>
+        <v>199.9</v>
       </c>
       <c r="V3">
-        <v>0.8974962191228365</v>
+        <v>0.3329447035309794</v>
       </c>
       <c r="W3">
-        <v>0.3824819006831855</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="X3">
-        <v>0.0907605451751905</v>
+        <v>0.09493726603005601</v>
       </c>
       <c r="Y3">
-        <v>0.291721355507995</v>
+        <v>0.3414263703335804</v>
       </c>
       <c r="Z3">
-        <v>1.887026474181464</v>
+        <v>0.5898047055672375</v>
       </c>
       <c r="AA3">
-        <v>0.006136412650791629</v>
+        <v>0.004031956446791866</v>
       </c>
       <c r="AB3">
-        <v>0.08688202621260457</v>
+        <v>0.09992160665577395</v>
       </c>
       <c r="AC3">
-        <v>-0.08074561356181295</v>
+        <v>-0.09588965020898207</v>
       </c>
       <c r="AD3">
-        <v>368.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="AE3">
-        <v>82.16827502710731</v>
+        <v>7.725641971595618</v>
       </c>
       <c r="AF3">
-        <v>450.4682750271073</v>
+        <v>80.12564197159563</v>
       </c>
       <c r="AG3">
-        <v>-617.7317249728927</v>
+        <v>-119.7743580284044</v>
       </c>
       <c r="AH3">
-        <v>0.2745638968484745</v>
+        <v>0.1177408124394231</v>
       </c>
       <c r="AI3">
-        <v>0.3122249655916808</v>
+        <v>0.1209944721153404</v>
       </c>
       <c r="AJ3">
-        <v>-1.079067176156866</v>
+        <v>-0.2492050934633298</v>
       </c>
       <c r="AK3">
-        <v>-1.649183249510888</v>
+        <v>-0.2590692515293432</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>16.66515837104073</v>
+        <v>14.77551020408163</v>
       </c>
       <c r="AP3">
-        <v>-27.95166176347931</v>
+        <v>-24.44374653640905</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grupo Supervielle S.A. (BASE:SUPV)</t>
+          <t>Banco Santander Río S.A. (BASE:BRIO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.417</v>
-      </c>
-      <c r="F4">
-        <v>0.142</v>
+        <v>0.383</v>
+      </c>
+      <c r="E4">
+        <v>0.39</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -862,103 +862,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01859847026286723</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01859847026286723</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-36.4</v>
+        <v>243.6</v>
       </c>
       <c r="L4">
-        <v>-0.09498956158663883</v>
+        <v>0.2693200663349917</v>
       </c>
       <c r="M4">
-        <v>6.73</v>
+        <v>9.01</v>
       </c>
       <c r="N4">
-        <v>0.01560398794342685</v>
+        <v>0.008204334365325076</v>
       </c>
       <c r="O4">
-        <v>-0.1848901098901099</v>
+        <v>0.03698686371100164</v>
       </c>
       <c r="P4">
-        <v>6.73</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01560398794342685</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0.1848901098901099</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>9.01</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>684.7</v>
+        <v>1664.4</v>
       </c>
       <c r="V4">
-        <v>1.587526083932298</v>
+        <v>1.515570934256055</v>
       </c>
       <c r="W4">
-        <v>-0.09113670505758638</v>
+        <v>0.2455892731122089</v>
       </c>
       <c r="X4">
-        <v>0.1158565728136156</v>
+        <v>0.1015340330672809</v>
       </c>
       <c r="Y4">
-        <v>-0.206993277871202</v>
+        <v>0.144055240044928</v>
       </c>
       <c r="Z4">
-        <v>0.7970624654273446</v>
+        <v>3.100118932146982</v>
       </c>
       <c r="AA4">
-        <v>0.01482414256089811</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.09746459446867778</v>
+        <v>0.0996617683549787</v>
       </c>
       <c r="AC4">
-        <v>-0.08264045190777966</v>
+        <v>-0.0996617683549787</v>
       </c>
       <c r="AD4">
-        <v>412.7</v>
+        <v>278.7</v>
       </c>
       <c r="AE4">
-        <v>23.86533097634639</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>436.5653309763464</v>
+        <v>278.7</v>
       </c>
       <c r="AG4">
-        <v>-248.1346690236537</v>
+        <v>-1385.7</v>
       </c>
       <c r="AH4">
-        <v>0.5030334953986599</v>
+        <v>0.2024112135957586</v>
       </c>
       <c r="AI4">
-        <v>0.5553098232329472</v>
+        <v>0.1646579227224388</v>
       </c>
       <c r="AJ4">
-        <v>-1.354703249250249</v>
+        <v>4.819826086956522</v>
       </c>
       <c r="AK4">
-        <v>-2.445511847603384</v>
+        <v>-49.13829787234035</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>34.68067226890756</v>
-      </c>
-      <c r="AP4">
-        <v>-20.85165285913056</v>
       </c>
     </row>
     <row r="5">
@@ -978,13 +972,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.527</v>
+        <v>0.509</v>
       </c>
       <c r="E5">
-        <v>0.335</v>
+        <v>0.655</v>
       </c>
       <c r="F5">
-        <v>0.167</v>
+        <v>0.197</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,85 +993,85 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>283.9</v>
+        <v>590.2</v>
       </c>
       <c r="L5">
-        <v>0.1817076292882744</v>
+        <v>0.4395620764131973</v>
       </c>
       <c r="M5">
-        <v>167.2</v>
+        <v>168.1622</v>
       </c>
       <c r="N5">
-        <v>0.05756188246634765</v>
+        <v>0.09729356630409627</v>
       </c>
       <c r="O5">
-        <v>0.5889397675237761</v>
+        <v>0.2849240935276178</v>
       </c>
       <c r="P5">
-        <v>131.3</v>
+        <v>168.1622</v>
       </c>
       <c r="Q5">
-        <v>0.04520260267841774</v>
+        <v>0.09729356630409627</v>
       </c>
       <c r="R5">
-        <v>0.4624867911236352</v>
+        <v>0.2849240935276178</v>
       </c>
       <c r="S5">
-        <v>35.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.2147129186602871</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1701.7</v>
+        <v>2330.2</v>
       </c>
       <c r="V5">
-        <v>0.5858436327331566</v>
+        <v>1.348183290904883</v>
       </c>
       <c r="W5">
-        <v>0.226251195409627</v>
+        <v>0.4449302676215605</v>
       </c>
       <c r="X5">
-        <v>0.08437641380513745</v>
+        <v>0.1035631023408472</v>
       </c>
       <c r="Y5">
-        <v>0.1418747816044896</v>
+        <v>0.3413671652807133</v>
       </c>
       <c r="Z5">
-        <v>2.631188952509262</v>
+        <v>5.246971473231734</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.08299455941064758</v>
+        <v>0.1010221954184001</v>
       </c>
       <c r="AC5">
-        <v>-0.08299455941064758</v>
+        <v>-0.1010221954184001</v>
       </c>
       <c r="AD5">
-        <v>631.1</v>
+        <v>502.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>631.1</v>
+        <v>502.6</v>
       </c>
       <c r="AG5">
-        <v>-1070.6</v>
+        <v>-1827.6</v>
       </c>
       <c r="AH5">
-        <v>0.17848860229651</v>
+        <v>0.2252801434334379</v>
       </c>
       <c r="AI5">
-        <v>0.3223845525132816</v>
+        <v>0.222310686482661</v>
       </c>
       <c r="AJ5">
-        <v>-0.5837195354669865</v>
+        <v>18.42338709677423</v>
       </c>
       <c r="AK5">
-        <v>-4.183665494333722</v>
+        <v>26.33429394812685</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1103,10 +1097,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.476</v>
+        <v>0.355</v>
       </c>
       <c r="E6">
-        <v>0.364</v>
+        <v>-0.0554</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,34 +1109,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.006129767635126176</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.004990933961271057</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>266.8</v>
+        <v>33.7</v>
       </c>
       <c r="L6">
-        <v>0.2194439874979437</v>
+        <v>0.04795105293113262</v>
       </c>
       <c r="M6">
-        <v>47.7</v>
+        <v>33.0858</v>
       </c>
       <c r="N6">
-        <v>0.03315262718932444</v>
+        <v>0.02917361784675073</v>
       </c>
       <c r="O6">
-        <v>0.1787856071964018</v>
+        <v>0.9817744807121661</v>
       </c>
       <c r="P6">
-        <v>47.7</v>
+        <v>33.0858</v>
       </c>
       <c r="Q6">
-        <v>0.03315262718932444</v>
+        <v>0.02917361784675073</v>
       </c>
       <c r="R6">
-        <v>0.1787856071964018</v>
+        <v>0.9817744807121661</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1151,67 +1145,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>608</v>
+        <v>571.9</v>
       </c>
       <c r="V6">
-        <v>0.422574367528496</v>
+        <v>0.5042765188255004</v>
       </c>
       <c r="W6">
-        <v>0.3035267349260524</v>
+        <v>0.0345889356461049</v>
       </c>
       <c r="X6">
-        <v>0.09523734434628538</v>
+        <v>0.1097854740990652</v>
       </c>
       <c r="Y6">
-        <v>0.208289390579767</v>
+        <v>-0.07519653845296029</v>
       </c>
       <c r="Z6">
-        <v>1.289545417616886</v>
+        <v>0.6823300970873786</v>
       </c>
       <c r="AA6">
-        <v>-0.006436036019385582</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0891068058799316</v>
+        <v>0.1047469695529461</v>
       </c>
       <c r="AC6">
-        <v>-0.09554284189931718</v>
+        <v>-0.1047469695529461</v>
       </c>
       <c r="AD6">
-        <v>663.7</v>
+        <v>458.5</v>
       </c>
       <c r="AE6">
-        <v>43.51285745393202</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>707.2128574539321</v>
+        <v>458.5</v>
       </c>
       <c r="AG6">
-        <v>99.21285745393209</v>
+        <v>-113.4</v>
       </c>
       <c r="AH6">
-        <v>0.3295473533616113</v>
+        <v>0.2878940097953033</v>
       </c>
       <c r="AI6">
-        <v>0.4102132152879432</v>
+        <v>0.2466114457831325</v>
       </c>
       <c r="AJ6">
-        <v>0.0645071703874906</v>
+        <v>-0.111100225335554</v>
       </c>
       <c r="AK6">
-        <v>0.08889938569370603</v>
+        <v>-0.08809135399673733</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>530.96</v>
-      </c>
-      <c r="AP6">
-        <v>79.37028596314568</v>
       </c>
     </row>
     <row r="7">
@@ -1231,13 +1219,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.5539999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="E7">
-        <v>0.435</v>
+        <v>0.369</v>
       </c>
       <c r="F7">
-        <v>0.233</v>
+        <v>0.146</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1246,103 +1234,94 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.007676024403681553</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.005162330394135795</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>325.4</v>
+        <v>251.1</v>
       </c>
       <c r="L7">
-        <v>0.1667264436132602</v>
+        <v>0.1367796056215274</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.01448275862068966</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.1290719114935464</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>42</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.01448275862068966</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.1290719114935464</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>1869.5</v>
+        <v>2341.9</v>
       </c>
       <c r="V7">
-        <v>0.6446551724137931</v>
+        <v>1.097628421447319</v>
       </c>
       <c r="W7">
-        <v>0.2620178758354134</v>
+        <v>0.1713408393039918</v>
       </c>
       <c r="X7">
-        <v>0.1040938426935093</v>
+        <v>0.122387115042063</v>
       </c>
       <c r="Y7">
-        <v>0.1579240331419041</v>
+        <v>0.04895372426192883</v>
       </c>
       <c r="Z7">
-        <v>0.778622417338486</v>
+        <v>1.244947782449478</v>
       </c>
       <c r="AA7">
-        <v>-0.004019506170581951</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0926441224262962</v>
+        <v>0.11070547415127</v>
       </c>
       <c r="AC7">
-        <v>-0.09666362859687816</v>
+        <v>-0.11070547415127</v>
       </c>
       <c r="AD7">
-        <v>1878.6</v>
+        <v>1353</v>
       </c>
       <c r="AE7">
-        <v>195.4064841433265</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>2074.006484143326</v>
+        <v>1353</v>
       </c>
       <c r="AG7">
-        <v>204.5064841433264</v>
+        <v>-988.9000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.4169689948646162</v>
+        <v>0.388057133023576</v>
       </c>
       <c r="AI7">
-        <v>0.5790877367738217</v>
+        <v>0.3937832882214267</v>
       </c>
       <c r="AJ7">
-        <v>0.06587407215538767</v>
+        <v>-0.8638944701668562</v>
       </c>
       <c r="AK7">
-        <v>0.1194542696172437</v>
+        <v>-0.903930530164534</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>77.95020746887965</v>
-      </c>
-      <c r="AP7">
-        <v>8.485746230013541</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1332,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Banco Patagonia S.A. (BASE:BPAT)</t>
+          <t>Grupo Supervielle S.A. (BASE:SUPV)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1362,10 +1341,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.442</v>
+        <v>0.535</v>
       </c>
       <c r="E8">
-        <v>0.476</v>
+        <v>0.526</v>
+      </c>
+      <c r="F8">
+        <v>1.168</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1374,34 +1356,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.006501444921963542</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.004803348895255896</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>252.6</v>
+        <v>43</v>
       </c>
       <c r="L8">
-        <v>0.4147102282055491</v>
+        <v>0.08277189605389798</v>
       </c>
       <c r="M8">
-        <v>23.3</v>
+        <v>5.77</v>
       </c>
       <c r="N8">
-        <v>0.04435560632019798</v>
+        <v>0.01699558173784978</v>
       </c>
       <c r="O8">
-        <v>0.0922406967537609</v>
+        <v>0.1341860465116279</v>
       </c>
       <c r="P8">
-        <v>23.3</v>
+        <v>5.77</v>
       </c>
       <c r="Q8">
-        <v>0.04435560632019798</v>
+        <v>0.01699558173784978</v>
       </c>
       <c r="R8">
-        <v>0.0922406967537609</v>
+        <v>0.1341860465116279</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1410,67 +1392,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>219.2</v>
+        <v>182.3</v>
       </c>
       <c r="V8">
-        <v>0.4172853607462403</v>
+        <v>0.5369661266568483</v>
       </c>
       <c r="W8">
-        <v>0.7190435525192143</v>
+        <v>0.1231033495562554</v>
       </c>
       <c r="X8">
-        <v>0.1119166283558078</v>
+        <v>0.1244072481628321</v>
       </c>
       <c r="Y8">
-        <v>0.6071269241634064</v>
+        <v>-0.001303898606576717</v>
       </c>
       <c r="Z8">
-        <v>1.379146852881631</v>
+        <v>9.293381037567091</v>
       </c>
       <c r="AA8">
-        <v>0.006624523512184627</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.1072659091961593</v>
+        <v>0.1115082097496771</v>
       </c>
       <c r="AC8">
-        <v>-0.1006413856839747</v>
+        <v>-0.1115082097496771</v>
       </c>
       <c r="AD8">
-        <v>472.5</v>
+        <v>227.8</v>
       </c>
       <c r="AE8">
-        <v>6.949849490160029</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>479.44984949016</v>
+        <v>227.8</v>
       </c>
       <c r="AG8">
-        <v>260.24984949016</v>
+        <v>45.5</v>
       </c>
       <c r="AH8">
-        <v>0.4771833006329358</v>
+        <v>0.4015512074739997</v>
       </c>
       <c r="AI8">
-        <v>0.5122601918802923</v>
+        <v>0.3530688158710477</v>
       </c>
       <c r="AJ8">
-        <v>0.3312964157005036</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="AK8">
-        <v>0.3630971805229977</v>
+        <v>0.09829336789803414</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>88.3177570093458</v>
-      </c>
-      <c r="AP8">
-        <v>48.64483168040375</v>
       </c>
     </row>
     <row r="9">
@@ -1490,10 +1466,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="E9">
-        <v>0.286</v>
+        <v>0.447</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1508,85 +1484,82 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>38.1</v>
+        <v>50.8</v>
       </c>
       <c r="L9">
-        <v>0.1643658326143227</v>
+        <v>0.3937984496124031</v>
       </c>
       <c r="M9">
-        <v>4.33</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.01255436358364743</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.1136482939632546</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>4.33</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.01255436358364743</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.1136482939632546</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>177.8</v>
+        <v>147.3</v>
       </c>
       <c r="V9">
-        <v>0.515511742534068</v>
+        <v>0.8987187309334961</v>
       </c>
       <c r="W9">
-        <v>0.1671052631578948</v>
+        <v>0.2585241730279898</v>
       </c>
       <c r="X9">
-        <v>0.138554862568058</v>
+        <v>0.2411561166900341</v>
       </c>
       <c r="Y9">
-        <v>0.02855040058983674</v>
+        <v>0.01736805633795566</v>
       </c>
       <c r="Z9">
-        <v>0.2221583285413073</v>
+        <v>0.2281167108753316</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.1162435435000456</v>
+        <v>0.131456007662023</v>
       </c>
       <c r="AC9">
-        <v>-0.1162435435000456</v>
+        <v>-0.131456007662023</v>
       </c>
       <c r="AD9">
-        <v>546.8</v>
+        <v>459</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>546.8</v>
+        <v>459</v>
       </c>
       <c r="AG9">
-        <v>368.9999999999999</v>
+        <v>311.7</v>
       </c>
       <c r="AH9">
-        <v>0.6132107210945386</v>
+        <v>0.7368759030341949</v>
       </c>
       <c r="AI9">
-        <v>0.731505016722408</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AJ9">
-        <v>0.5168791147219499</v>
+        <v>0.6553826745164003</v>
       </c>
       <c r="AK9">
-        <v>0.6477093206951027</v>
+        <v>0.6044211751018033</v>
       </c>
       <c r="AL9">
         <v>0</v>
